--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel10/field_100ha_100ha_10%_12m_0_TSP/Planilha_Unificada.xlsx
@@ -2877,28 +2877,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2432.330660480135</v>
+        <v>2529.810124534988</v>
       </c>
       <c r="AB2" t="n">
-        <v>3328.022116524513</v>
+        <v>3461.397819734812</v>
       </c>
       <c r="AC2" t="n">
-        <v>3010.400356631664</v>
+        <v>3131.046869921542</v>
       </c>
       <c r="AD2" t="n">
-        <v>2432330.660480135</v>
+        <v>2529810.124534988</v>
       </c>
       <c r="AE2" t="n">
-        <v>3328022.116524512</v>
+        <v>3461397.819734812</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.037384163990855e-06</v>
+        <v>1.919432305525932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>15</v>
+        <v>14.64791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>3010400.356631664</v>
+        <v>3131046.869921542</v>
       </c>
     </row>
     <row r="3">
@@ -2983,28 +2983,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>820.7828069400499</v>
+        <v>869.5652093947626</v>
       </c>
       <c r="AB3" t="n">
-        <v>1123.031246837219</v>
+        <v>1189.777482003463</v>
       </c>
       <c r="AC3" t="n">
-        <v>1015.850720823328</v>
+        <v>1076.226788984236</v>
       </c>
       <c r="AD3" t="n">
-        <v>820782.8069400499</v>
+        <v>869565.2093947626</v>
       </c>
       <c r="AE3" t="n">
-        <v>1123031.246837219</v>
+        <v>1189777.482003463</v>
       </c>
       <c r="AF3" t="n">
-        <v>1.941867614524296e-06</v>
+        <v>3.592963495831203e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.826041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>1015850.720823328</v>
+        <v>1076226.788984236</v>
       </c>
     </row>
     <row r="4">
@@ -3089,28 +3089,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>627.1454806363652</v>
+        <v>675.8425422365062</v>
       </c>
       <c r="AB4" t="n">
-        <v>858.0881143125924</v>
+        <v>924.7175823566396</v>
       </c>
       <c r="AC4" t="n">
-        <v>776.1933890168305</v>
+        <v>836.4638341457992</v>
       </c>
       <c r="AD4" t="n">
-        <v>627145.4806363651</v>
+        <v>675842.5422365062</v>
       </c>
       <c r="AE4" t="n">
-        <v>858088.1143125924</v>
+        <v>924717.5823566396</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.270399345266443e-06</v>
+        <v>4.200833212051762e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.693750000000001</v>
       </c>
       <c r="AH4" t="n">
-        <v>776193.3890168305</v>
+        <v>836463.8341457992</v>
       </c>
     </row>
     <row r="5">
@@ -3195,28 +3195,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>547.7754746406453</v>
+        <v>584.2770251356592</v>
       </c>
       <c r="AB5" t="n">
-        <v>749.4905705517116</v>
+        <v>799.4336022737457</v>
       </c>
       <c r="AC5" t="n">
-        <v>677.9602424148779</v>
+        <v>723.1367812848465</v>
       </c>
       <c r="AD5" t="n">
-        <v>547775.4746406452</v>
+        <v>584277.0251356591</v>
       </c>
       <c r="AE5" t="n">
-        <v>749490.5705517116</v>
+        <v>799433.6022737457</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.44721127140298e-06</v>
+        <v>4.52798156731789e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.209375000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>677960.242414878</v>
+        <v>723136.7812848465</v>
       </c>
     </row>
     <row r="6">
@@ -3301,28 +3301,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>487.8749791826129</v>
+        <v>536.4866999281824</v>
       </c>
       <c r="AB6" t="n">
-        <v>667.5320700426793</v>
+        <v>734.0447709645287</v>
       </c>
       <c r="AC6" t="n">
-        <v>603.82374616495</v>
+        <v>663.9885682619798</v>
       </c>
       <c r="AD6" t="n">
-        <v>487874.979182613</v>
+        <v>536486.6999281824</v>
       </c>
       <c r="AE6" t="n">
-        <v>667532.0700426793</v>
+        <v>734044.7709645287</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.556916360887036e-06</v>
+        <v>4.730964705238787e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.943750000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>603823.74616495</v>
+        <v>663988.5682619798</v>
       </c>
     </row>
     <row r="7">
@@ -3407,28 +3407,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>452.9346308122954</v>
+        <v>489.5214326533299</v>
       </c>
       <c r="AB7" t="n">
-        <v>619.7251439430315</v>
+        <v>669.7848203177149</v>
       </c>
       <c r="AC7" t="n">
-        <v>560.57944599481</v>
+        <v>605.8614971154909</v>
       </c>
       <c r="AD7" t="n">
-        <v>452934.6308122954</v>
+        <v>489521.4326533299</v>
       </c>
       <c r="AE7" t="n">
-        <v>619725.1439430316</v>
+        <v>669784.8203177149</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.63058799677726e-06</v>
+        <v>4.867276519933007e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.777083333333334</v>
       </c>
       <c r="AH7" t="n">
-        <v>560579.4459948101</v>
+        <v>605861.497115491</v>
       </c>
     </row>
     <row r="8">
@@ -3513,28 +3513,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>443.6811156114132</v>
+        <v>480.2679174524478</v>
       </c>
       <c r="AB8" t="n">
-        <v>607.0640762089058</v>
+        <v>657.1237525835893</v>
       </c>
       <c r="AC8" t="n">
-        <v>549.1267327953093</v>
+        <v>594.4087839159901</v>
       </c>
       <c r="AD8" t="n">
-        <v>443681.1156114133</v>
+        <v>480267.9174524478</v>
       </c>
       <c r="AE8" t="n">
-        <v>607064.0762089058</v>
+        <v>657123.7525835893</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.649990625635477e-06</v>
+        <v>4.90317646320891e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.734375</v>
       </c>
       <c r="AH8" t="n">
-        <v>549126.7327953093</v>
+        <v>594408.78391599</v>
       </c>
     </row>
     <row r="9">
@@ -3619,28 +3619,28 @@
         <v>10</v>
       </c>
       <c r="AA9" t="n">
-        <v>445.3623767772331</v>
+        <v>481.9491786182676</v>
       </c>
       <c r="AB9" t="n">
-        <v>609.3644519079883</v>
+        <v>659.4241282826717</v>
       </c>
       <c r="AC9" t="n">
-        <v>551.2075638662689</v>
+        <v>596.4896149869496</v>
       </c>
       <c r="AD9" t="n">
-        <v>445362.3767772331</v>
+        <v>481949.1786182676</v>
       </c>
       <c r="AE9" t="n">
-        <v>609364.4519079883</v>
+        <v>659424.1282826718</v>
       </c>
       <c r="AF9" t="n">
-        <v>2.650136510062983e-06</v>
+        <v>4.903446387594444e-06</v>
       </c>
       <c r="AG9" t="n">
-        <v>6</v>
+        <v>5.734375</v>
       </c>
       <c r="AH9" t="n">
-        <v>551207.5638662688</v>
+        <v>596489.6149869496</v>
       </c>
     </row>
   </sheetData>
@@ -3916,28 +3916,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1468.064023266672</v>
+        <v>1538.646296062975</v>
       </c>
       <c r="AB2" t="n">
-        <v>2008.669963047183</v>
+        <v>2105.243742557195</v>
       </c>
       <c r="AC2" t="n">
-        <v>1816.965320959958</v>
+        <v>1904.322234495686</v>
       </c>
       <c r="AD2" t="n">
-        <v>1468064.023266672</v>
+        <v>1538646.296062975</v>
       </c>
       <c r="AE2" t="n">
-        <v>2008669.963047183</v>
+        <v>2105243.742557195</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.365935278256834e-06</v>
+        <v>2.603683448425386e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>12</v>
+        <v>11.509375</v>
       </c>
       <c r="AH2" t="n">
-        <v>1816965.320959958</v>
+        <v>1904322.234495685</v>
       </c>
     </row>
     <row r="3">
@@ -4022,28 +4022,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>644.3004809214317</v>
+        <v>679.5917068281344</v>
       </c>
       <c r="AB3" t="n">
-        <v>881.5603425278192</v>
+        <v>929.8473547523736</v>
       </c>
       <c r="AC3" t="n">
-        <v>797.425460714675</v>
+        <v>841.1040282637653</v>
       </c>
       <c r="AD3" t="n">
-        <v>644300.4809214317</v>
+        <v>679591.7068281344</v>
       </c>
       <c r="AE3" t="n">
-        <v>881560.3425278192</v>
+        <v>929847.3547523735</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.1992901126988e-06</v>
+        <v>4.19218637652228e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.147916666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>797425.4607146749</v>
+        <v>841104.0282637653</v>
       </c>
     </row>
     <row r="4">
@@ -4128,28 +4128,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>506.0677475434903</v>
+        <v>541.2736325956213</v>
       </c>
       <c r="AB4" t="n">
-        <v>692.4242183223264</v>
+        <v>740.5944634246831</v>
       </c>
       <c r="AC4" t="n">
-        <v>626.3402227491368</v>
+        <v>669.9131672662883</v>
       </c>
       <c r="AD4" t="n">
-        <v>506067.7475434903</v>
+        <v>541273.6325956213</v>
       </c>
       <c r="AE4" t="n">
-        <v>692424.2183223264</v>
+        <v>740594.4634246831</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.497951687736947e-06</v>
+        <v>4.761481431702242e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.29375</v>
       </c>
       <c r="AH4" t="n">
-        <v>626340.2227491369</v>
+        <v>669913.1672662883</v>
       </c>
     </row>
     <row r="5">
@@ -4234,28 +4234,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>428.9024258536007</v>
+        <v>464.1935622517524</v>
       </c>
       <c r="AB5" t="n">
-        <v>586.8432208924896</v>
+        <v>635.1301106474957</v>
       </c>
       <c r="AC5" t="n">
-        <v>530.8357275301431</v>
+        <v>574.5141842980069</v>
       </c>
       <c r="AD5" t="n">
-        <v>428902.4258536007</v>
+        <v>464193.5622517524</v>
       </c>
       <c r="AE5" t="n">
-        <v>586843.2208924897</v>
+        <v>635130.1106474957</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.662751303675127e-06</v>
+        <v>5.075614933600432e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.904166666666666</v>
       </c>
       <c r="AH5" t="n">
-        <v>530835.7275301431</v>
+        <v>574514.1842980068</v>
       </c>
     </row>
     <row r="6">
@@ -4340,28 +4340,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>408.1328214936664</v>
+        <v>443.4239578918181</v>
       </c>
       <c r="AB6" t="n">
-        <v>558.4253319169518</v>
+        <v>606.7122216719579</v>
       </c>
       <c r="AC6" t="n">
-        <v>505.1300019936729</v>
+        <v>548.8084587615367</v>
       </c>
       <c r="AD6" t="n">
-        <v>408132.8214936664</v>
+        <v>443423.9578918181</v>
       </c>
       <c r="AE6" t="n">
-        <v>558425.3319169518</v>
+        <v>606712.2216719579</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.71330796241074e-06</v>
+        <v>5.171983727680921e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.793749999999999</v>
       </c>
       <c r="AH6" t="n">
-        <v>505130.0019936729</v>
+        <v>548808.4587615367</v>
       </c>
     </row>
     <row r="7">
@@ -4446,28 +4446,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>409.7994092546239</v>
+        <v>445.0905456527756</v>
       </c>
       <c r="AB7" t="n">
-        <v>560.7056308161567</v>
+        <v>608.9925205711627</v>
       </c>
       <c r="AC7" t="n">
-        <v>507.1926723663573</v>
+        <v>550.871129134221</v>
       </c>
       <c r="AD7" t="n">
-        <v>409799.4092546239</v>
+        <v>445090.5456527756</v>
       </c>
       <c r="AE7" t="n">
-        <v>560705.6308161567</v>
+        <v>608992.5205711627</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.713458877809951e-06</v>
+        <v>5.172271395722953e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.793749999999999</v>
       </c>
       <c r="AH7" t="n">
-        <v>507192.6723663574</v>
+        <v>550871.129134221</v>
       </c>
     </row>
   </sheetData>
@@ -4743,28 +4743,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>462.5088438871234</v>
+        <v>493.8992608692471</v>
       </c>
       <c r="AB2" t="n">
-        <v>632.8250046564816</v>
+        <v>675.7747580188829</v>
       </c>
       <c r="AC2" t="n">
-        <v>572.4290743875385</v>
+        <v>611.2797635693897</v>
       </c>
       <c r="AD2" t="n">
-        <v>462508.8438871234</v>
+        <v>493899.2608692471</v>
       </c>
       <c r="AE2" t="n">
-        <v>632825.0046564816</v>
+        <v>675774.7580188829</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.425964645061028e-06</v>
+        <v>5.166669811913944e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.230208333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>572429.0743875386</v>
+        <v>611279.7635693897</v>
       </c>
     </row>
     <row r="3">
@@ -4849,28 +4849,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>346.9299274421406</v>
+        <v>378.2350035696927</v>
       </c>
       <c r="AB3" t="n">
-        <v>474.6848321945308</v>
+        <v>517.5178184347344</v>
       </c>
       <c r="AC3" t="n">
-        <v>429.3815780342303</v>
+        <v>468.1266441841426</v>
       </c>
       <c r="AD3" t="n">
-        <v>346929.9274421406</v>
+        <v>378235.0035696927</v>
       </c>
       <c r="AE3" t="n">
-        <v>474684.8321945308</v>
+        <v>517517.8184347344</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.793075774190074e-06</v>
+        <v>5.948520442899116e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.280208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>429381.5780342303</v>
+        <v>468126.6441841426</v>
       </c>
     </row>
   </sheetData>
@@ -5146,28 +5146,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>707.1071666275409</v>
+        <v>750.9090994663218</v>
       </c>
       <c r="AB2" t="n">
-        <v>967.4952207463351</v>
+        <v>1027.42695766125</v>
       </c>
       <c r="AC2" t="n">
-        <v>875.1588347663749</v>
+        <v>929.3707708248509</v>
       </c>
       <c r="AD2" t="n">
-        <v>707107.1666275408</v>
+        <v>750909.0994663218</v>
       </c>
       <c r="AE2" t="n">
-        <v>967495.2207463351</v>
+        <v>1027426.95766125</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.993321901821772e-06</v>
+        <v>4.047132615192722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.418749999999999</v>
       </c>
       <c r="AH2" t="n">
-        <v>875158.8347663749</v>
+        <v>929370.7708248509</v>
       </c>
     </row>
     <row r="3">
@@ -5252,28 +5252,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>401.0426116058537</v>
+        <v>433.8727483984341</v>
       </c>
       <c r="AB3" t="n">
-        <v>548.7241939504623</v>
+        <v>593.6438354734858</v>
       </c>
       <c r="AC3" t="n">
-        <v>496.3547270190726</v>
+        <v>536.9873010002516</v>
       </c>
       <c r="AD3" t="n">
-        <v>401042.6116058537</v>
+        <v>433872.7483984341</v>
       </c>
       <c r="AE3" t="n">
-        <v>548724.1939504624</v>
+        <v>593643.8354734858</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.690251550838258e-06</v>
+        <v>5.462140753342218e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.238541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>496354.7270190726</v>
+        <v>536987.3010002516</v>
       </c>
     </row>
     <row r="4">
@@ -5358,28 +5358,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>370.2910507648527</v>
+        <v>403.1211875574331</v>
       </c>
       <c r="AB4" t="n">
-        <v>506.6485517446889</v>
+        <v>551.5681932677123</v>
       </c>
       <c r="AC4" t="n">
-        <v>458.2947250518836</v>
+        <v>498.9272990330624</v>
       </c>
       <c r="AD4" t="n">
-        <v>370291.0507648527</v>
+        <v>403121.1875574331</v>
       </c>
       <c r="AE4" t="n">
-        <v>506648.5517446889</v>
+        <v>551568.1932677124</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.793679390567473e-06</v>
+        <v>5.672135026271478e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.007291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>458294.7250518835</v>
+        <v>498927.2990330624</v>
       </c>
     </row>
     <row r="5">
@@ -5464,28 +5464,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>372.3277677949219</v>
+        <v>405.1579045875023</v>
       </c>
       <c r="AB5" t="n">
-        <v>509.4352778388434</v>
+        <v>554.3549193618668</v>
       </c>
       <c r="AC5" t="n">
-        <v>460.8154899188065</v>
+        <v>501.4480638999855</v>
       </c>
       <c r="AD5" t="n">
-        <v>372327.7677949219</v>
+        <v>405157.9045875023</v>
       </c>
       <c r="AE5" t="n">
-        <v>509435.2778388434</v>
+        <v>554354.9193618668</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.793840493121569e-06</v>
+        <v>5.672462120154545e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.006249999999999</v>
       </c>
       <c r="AH5" t="n">
-        <v>460815.4899188065</v>
+        <v>501448.0638999855</v>
       </c>
     </row>
   </sheetData>
@@ -5761,28 +5761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>336.540869486913</v>
+        <v>376.6414818203153</v>
       </c>
       <c r="AB2" t="n">
-        <v>460.470064767299</v>
+        <v>515.3374916760183</v>
       </c>
       <c r="AC2" t="n">
-        <v>416.523448059702</v>
+        <v>466.1544047511706</v>
       </c>
       <c r="AD2" t="n">
-        <v>336540.869486913</v>
+        <v>376641.4818203154</v>
       </c>
       <c r="AE2" t="n">
-        <v>460470.064767299</v>
+        <v>515337.4916760183</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.721049932779611e-06</v>
+        <v>6.059246713831284e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.695833333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>416523.4480597021</v>
+        <v>466154.4047511706</v>
       </c>
     </row>
     <row r="3">
@@ -5867,28 +5867,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>333.9438268439487</v>
+        <v>374.0444391773511</v>
       </c>
       <c r="AB3" t="n">
-        <v>456.91667644976</v>
+        <v>511.7841033584794</v>
       </c>
       <c r="AC3" t="n">
-        <v>413.3091901359772</v>
+        <v>462.9401468274456</v>
       </c>
       <c r="AD3" t="n">
-        <v>333943.8268439487</v>
+        <v>374044.4391773511</v>
       </c>
       <c r="AE3" t="n">
-        <v>456916.67644976</v>
+        <v>511784.1033584794</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.74326187142616e-06</v>
+        <v>6.108708362671531e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.640625</v>
       </c>
       <c r="AH3" t="n">
-        <v>413309.1901359772</v>
+        <v>462940.1468274457</v>
       </c>
     </row>
   </sheetData>
@@ -6164,28 +6164,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1661.003289330919</v>
+        <v>1732.18141995045</v>
       </c>
       <c r="AB2" t="n">
-        <v>2272.657978755966</v>
+        <v>2370.04703722711</v>
       </c>
       <c r="AC2" t="n">
-        <v>2055.758690959003</v>
+        <v>2143.853074376062</v>
       </c>
       <c r="AD2" t="n">
-        <v>1661003.289330919</v>
+        <v>1732181.41995045</v>
       </c>
       <c r="AE2" t="n">
-        <v>2272657.978755966</v>
+        <v>2370047.03722711</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.279483550101669e-06</v>
+        <v>2.419201011132792e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.17708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>2055758.690959003</v>
+        <v>2143853.074376062</v>
       </c>
     </row>
     <row r="3">
@@ -6270,28 +6270,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>686.8353832066339</v>
+        <v>734.173712316409</v>
       </c>
       <c r="AB3" t="n">
-        <v>939.7584723418843</v>
+        <v>1004.528862649566</v>
       </c>
       <c r="AC3" t="n">
-        <v>850.0692427008736</v>
+        <v>908.6580378634039</v>
       </c>
       <c r="AD3" t="n">
-        <v>686835.3832066339</v>
+        <v>734173.712316409</v>
       </c>
       <c r="AE3" t="n">
-        <v>939758.4723418843</v>
+        <v>1004528.862649566</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.130029774464988e-06</v>
+        <v>4.027382910643276e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.313541666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>850069.2427008736</v>
+        <v>908658.0378634039</v>
       </c>
     </row>
     <row r="4">
@@ -6376,28 +6376,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>535.2303840421233</v>
+        <v>570.7768236788784</v>
       </c>
       <c r="AB4" t="n">
-        <v>732.3258241444773</v>
+        <v>780.9620310537242</v>
       </c>
       <c r="AC4" t="n">
-        <v>662.4336753138773</v>
+        <v>706.4281108970507</v>
       </c>
       <c r="AD4" t="n">
-        <v>535230.3840421233</v>
+        <v>570776.8236788784</v>
       </c>
       <c r="AE4" t="n">
-        <v>732325.8241444774</v>
+        <v>780962.0310537242</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.439169750860096e-06</v>
+        <v>4.611893546530066e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.3875</v>
       </c>
       <c r="AH4" t="n">
-        <v>662433.6753138773</v>
+        <v>706428.1108970507</v>
       </c>
     </row>
     <row r="5">
@@ -6482,28 +6482,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>455.0580709942511</v>
+        <v>502.3963105954751</v>
       </c>
       <c r="AB5" t="n">
-        <v>622.6305284795525</v>
+        <v>687.4007963176854</v>
       </c>
       <c r="AC5" t="n">
-        <v>563.2075447088984</v>
+        <v>621.7962290902019</v>
       </c>
       <c r="AD5" t="n">
-        <v>455058.0709942511</v>
+        <v>502396.3105954751</v>
       </c>
       <c r="AE5" t="n">
-        <v>622630.5284795525</v>
+        <v>687400.7963176854</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.608620932889925e-06</v>
+        <v>4.93228568511726e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.971875</v>
       </c>
       <c r="AH5" t="n">
-        <v>563207.5447088984</v>
+        <v>621796.2290902019</v>
       </c>
     </row>
     <row r="6">
@@ -6588,28 +6588,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>418.7007201373158</v>
+        <v>454.3324111200913</v>
       </c>
       <c r="AB6" t="n">
-        <v>572.8847970639767</v>
+        <v>621.637648625873</v>
       </c>
       <c r="AC6" t="n">
-        <v>518.2094760810526</v>
+        <v>562.3094239149385</v>
       </c>
       <c r="AD6" t="n">
-        <v>418700.7201373158</v>
+        <v>454332.4111200913</v>
       </c>
       <c r="AE6" t="n">
-        <v>572884.7970639768</v>
+        <v>621637.648625873</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.693421303773344e-06</v>
+        <v>5.092623145469369e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.784375</v>
       </c>
       <c r="AH6" t="n">
-        <v>518209.4760810526</v>
+        <v>562309.4239149385</v>
       </c>
     </row>
     <row r="7">
@@ -6694,28 +6694,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>418.6263190190991</v>
+        <v>454.2580100018745</v>
       </c>
       <c r="AB7" t="n">
-        <v>572.7829981716868</v>
+        <v>621.5358497335832</v>
       </c>
       <c r="AC7" t="n">
-        <v>518.1173927321672</v>
+        <v>562.2173405660532</v>
       </c>
       <c r="AD7" t="n">
-        <v>418626.3190190991</v>
+        <v>454258.0100018745</v>
       </c>
       <c r="AE7" t="n">
-        <v>572782.9981716868</v>
+        <v>621535.8497335832</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.694169102458383e-06</v>
+        <v>5.094037056054484e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.782291666666667</v>
       </c>
       <c r="AH7" t="n">
-        <v>518117.3927321673</v>
+        <v>562217.3405660532</v>
       </c>
     </row>
     <row r="8">
@@ -6800,28 +6800,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>420.67985659894</v>
+        <v>456.3115475817156</v>
       </c>
       <c r="AB8" t="n">
-        <v>575.5927388841093</v>
+        <v>624.3455904460056</v>
       </c>
       <c r="AC8" t="n">
-        <v>520.6589757344921</v>
+        <v>564.758923568378</v>
       </c>
       <c r="AD8" t="n">
-        <v>420679.85659894</v>
+        <v>456311.5475817156</v>
       </c>
       <c r="AE8" t="n">
-        <v>575592.7388841093</v>
+        <v>624345.5904460057</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.693570863510352e-06</v>
+        <v>5.092905927586392e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.783333333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>520658.9757344921</v>
+        <v>564758.923568378</v>
       </c>
     </row>
   </sheetData>
@@ -7097,28 +7097,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>326.2899158824692</v>
+        <v>365.4029309670927</v>
       </c>
       <c r="AB2" t="n">
-        <v>446.4442578055435</v>
+        <v>499.960410588768</v>
       </c>
       <c r="AC2" t="n">
-        <v>403.8362444290328</v>
+        <v>452.2448907010186</v>
       </c>
       <c r="AD2" t="n">
-        <v>326289.9158824693</v>
+        <v>365402.9309670927</v>
       </c>
       <c r="AE2" t="n">
-        <v>446444.2578055435</v>
+        <v>499960.410588768</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.674954233002634e-06</v>
+        <v>6.132511127496745e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.969791666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>403836.2444290328</v>
+        <v>452244.8907010186</v>
       </c>
     </row>
   </sheetData>
@@ -7394,28 +7394,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1021.796070608781</v>
+        <v>1078.772523942066</v>
       </c>
       <c r="AB2" t="n">
-        <v>1398.066462268092</v>
+        <v>1476.024159342411</v>
       </c>
       <c r="AC2" t="n">
-        <v>1264.636961307828</v>
+        <v>1335.154485187689</v>
       </c>
       <c r="AD2" t="n">
-        <v>1021796.070608781</v>
+        <v>1078772.523942066</v>
       </c>
       <c r="AE2" t="n">
-        <v>1398066.462268092</v>
+        <v>1476024.159342411</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.652077272876048e-06</v>
+        <v>3.23804862323788e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.804166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1264636.961307828</v>
+        <v>1335154.48518769</v>
       </c>
     </row>
     <row r="3">
@@ -7500,28 +7500,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>514.2458755805901</v>
+        <v>559.7416973926465</v>
       </c>
       <c r="AB3" t="n">
-        <v>703.6138938962318</v>
+        <v>765.8632844334894</v>
       </c>
       <c r="AC3" t="n">
-        <v>636.4619713910772</v>
+        <v>692.7703674630271</v>
       </c>
       <c r="AD3" t="n">
-        <v>514245.8755805901</v>
+        <v>559741.6973926466</v>
       </c>
       <c r="AE3" t="n">
-        <v>703613.8938962319</v>
+        <v>765863.2844334894</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.425016202143515e-06</v>
+        <v>4.752998242636987e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.679166666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>636461.9713910773</v>
+        <v>692770.3674630271</v>
       </c>
     </row>
     <row r="4">
@@ -7606,28 +7606,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>401.7595164515297</v>
+        <v>447.1699974090145</v>
       </c>
       <c r="AB4" t="n">
-        <v>549.705094787926</v>
+        <v>611.8377182029856</v>
       </c>
       <c r="AC4" t="n">
-        <v>497.2420120573116</v>
+        <v>553.4447850973227</v>
       </c>
       <c r="AD4" t="n">
-        <v>401759.5164515298</v>
+        <v>447169.9974090144</v>
       </c>
       <c r="AE4" t="n">
-        <v>549705.0947879259</v>
+        <v>611837.7182029856</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.702409694361008e-06</v>
+        <v>5.296685653823469e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.993749999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>497242.0120573116</v>
+        <v>553444.7850973227</v>
       </c>
     </row>
     <row r="5">
@@ -7712,28 +7712,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>383.806900860456</v>
+        <v>417.992772860427</v>
       </c>
       <c r="AB5" t="n">
-        <v>525.1415341227165</v>
+        <v>571.9161523673079</v>
       </c>
       <c r="AC5" t="n">
-        <v>475.0227631468159</v>
+        <v>517.3332774747325</v>
       </c>
       <c r="AD5" t="n">
-        <v>383806.9008604561</v>
+        <v>417992.772860427</v>
       </c>
       <c r="AE5" t="n">
-        <v>525141.5341227165</v>
+        <v>571916.1523673078</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.757919490729643e-06</v>
+        <v>5.405484087564262e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.872916666666668</v>
       </c>
       <c r="AH5" t="n">
-        <v>475022.7631468159</v>
+        <v>517333.2774747325</v>
       </c>
     </row>
     <row r="6">
@@ -7818,28 +7818,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>386.0423435117565</v>
+        <v>420.2282155117276</v>
       </c>
       <c r="AB6" t="n">
-        <v>528.2001653789955</v>
+        <v>574.9747836235866</v>
       </c>
       <c r="AC6" t="n">
-        <v>477.7894829288115</v>
+        <v>520.099997256728</v>
       </c>
       <c r="AD6" t="n">
-        <v>386042.3435117566</v>
+        <v>420228.2155117276</v>
       </c>
       <c r="AE6" t="n">
-        <v>528200.1653789955</v>
+        <v>574974.7836235866</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.758074980355326e-06</v>
+        <v>5.405788845081743e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.872916666666668</v>
       </c>
       <c r="AH6" t="n">
-        <v>477789.4829288115</v>
+        <v>520099.997256728</v>
       </c>
     </row>
   </sheetData>
@@ -8115,28 +8115,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1296.630652280209</v>
+        <v>1366.420575021665</v>
       </c>
       <c r="AB2" t="n">
-        <v>1774.107261756954</v>
+        <v>1869.596912965906</v>
       </c>
       <c r="AC2" t="n">
-        <v>1604.78895467005</v>
+        <v>1691.165207588187</v>
       </c>
       <c r="AD2" t="n">
-        <v>1296630.652280209</v>
+        <v>1366420.575021665</v>
       </c>
       <c r="AE2" t="n">
-        <v>1774107.261756954</v>
+        <v>1869596.912965906</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.457216798870083e-06</v>
+        <v>2.801795229219071e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.890625</v>
       </c>
       <c r="AH2" t="n">
-        <v>1604788.95467005</v>
+        <v>1691165.207588187</v>
       </c>
     </row>
     <row r="3">
@@ -8221,28 +8221,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>605.8165573636591</v>
+        <v>640.7542786702239</v>
       </c>
       <c r="AB3" t="n">
-        <v>828.9049405251913</v>
+        <v>876.7082721603148</v>
       </c>
       <c r="AC3" t="n">
-        <v>749.795416376857</v>
+        <v>793.0364651331216</v>
       </c>
       <c r="AD3" t="n">
-        <v>605816.557363659</v>
+        <v>640754.2786702239</v>
       </c>
       <c r="AE3" t="n">
-        <v>828904.9405251913</v>
+        <v>876708.2721603147</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.266798614781805e-06</v>
+        <v>4.358380681186676e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.001041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>749795.416376857</v>
+        <v>793036.4651331216</v>
       </c>
     </row>
     <row r="4">
@@ -8327,28 +8327,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>473.6460512533505</v>
+        <v>508.4984317053437</v>
       </c>
       <c r="AB4" t="n">
-        <v>648.0634231138657</v>
+        <v>695.7499876267914</v>
       </c>
       <c r="AC4" t="n">
-        <v>586.2131595746046</v>
+        <v>629.3485852989303</v>
       </c>
       <c r="AD4" t="n">
-        <v>473646.0512533506</v>
+        <v>508498.4317053437</v>
       </c>
       <c r="AE4" t="n">
-        <v>648063.4231138658</v>
+        <v>695749.9876267913</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.566621161585394e-06</v>
+        <v>4.934850415750516e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.183333333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>586213.1595746046</v>
+        <v>629348.5852989303</v>
       </c>
     </row>
     <row r="5">
@@ -8433,28 +8433,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>406.1125238825373</v>
+        <v>441.050155680551</v>
       </c>
       <c r="AB5" t="n">
-        <v>555.6610715961646</v>
+        <v>603.4642807617397</v>
       </c>
       <c r="AC5" t="n">
-        <v>502.6295587982381</v>
+        <v>545.870496773276</v>
       </c>
       <c r="AD5" t="n">
-        <v>406112.5238825373</v>
+        <v>441050.155680551</v>
       </c>
       <c r="AE5" t="n">
-        <v>555661.0715961646</v>
+        <v>603464.2807617397</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.71028613192878e-06</v>
+        <v>5.211075496895689e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.855208333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>502629.5587982381</v>
+        <v>545870.496773276</v>
       </c>
     </row>
     <row r="6">
@@ -8539,28 +8539,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>401.08933868355</v>
+        <v>436.0269704815636</v>
       </c>
       <c r="AB6" t="n">
-        <v>548.7881279996195</v>
+        <v>596.5913371651945</v>
       </c>
       <c r="AC6" t="n">
-        <v>496.4125592923103</v>
+        <v>539.6534972673483</v>
       </c>
       <c r="AD6" t="n">
-        <v>401089.33868355</v>
+        <v>436026.9704815637</v>
       </c>
       <c r="AE6" t="n">
-        <v>548788.1279996195</v>
+        <v>596591.3371651946</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.729177389959087e-06</v>
+        <v>5.247397776919022e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.814583333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>496412.5592923103</v>
+        <v>539653.4972673482</v>
       </c>
     </row>
     <row r="7">
@@ -8645,28 +8645,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>403.0035713347992</v>
+        <v>437.9412031328129</v>
       </c>
       <c r="AB7" t="n">
-        <v>551.4072655630431</v>
+        <v>599.210474728618</v>
       </c>
       <c r="AC7" t="n">
-        <v>498.7817300426634</v>
+        <v>542.0226680177013</v>
       </c>
       <c r="AD7" t="n">
-        <v>403003.5713347992</v>
+        <v>437941.2031328129</v>
       </c>
       <c r="AE7" t="n">
-        <v>551407.2655630431</v>
+        <v>599210.474728618</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.728872692248921e-06</v>
+        <v>5.246811933692838e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.815625</v>
       </c>
       <c r="AH7" t="n">
-        <v>498781.7300426633</v>
+        <v>542022.6680177014</v>
       </c>
     </row>
   </sheetData>
@@ -8942,28 +8942,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>2126.201543831327</v>
+        <v>2210.851531906917</v>
       </c>
       <c r="AB2" t="n">
-        <v>2909.162753661966</v>
+        <v>3024.984601841068</v>
       </c>
       <c r="AC2" t="n">
-        <v>2631.516343488036</v>
+        <v>2736.284317033795</v>
       </c>
       <c r="AD2" t="n">
-        <v>2126201.543831327</v>
+        <v>2210851.531906917</v>
       </c>
       <c r="AE2" t="n">
-        <v>2909162.753661966</v>
+        <v>3024984.601841067</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.116261353978494e-06</v>
+        <v>2.079510238029722e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>14</v>
+        <v>13.72291666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2631516.343488036</v>
+        <v>2736284.317033795</v>
       </c>
     </row>
     <row r="3">
@@ -9048,28 +9048,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>775.4889113130464</v>
+        <v>823.8603330705245</v>
       </c>
       <c r="AB3" t="n">
-        <v>1061.058140614705</v>
+        <v>1127.242053859805</v>
       </c>
       <c r="AC3" t="n">
-        <v>959.7922408788904</v>
+        <v>1019.659654333583</v>
       </c>
       <c r="AD3" t="n">
-        <v>775488.9113130464</v>
+        <v>823860.3330705245</v>
       </c>
       <c r="AE3" t="n">
-        <v>1061058.140614705</v>
+        <v>1127242.053859805</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.000917961215304e-06</v>
+        <v>3.727558399271563e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.655208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>959792.2408788904</v>
+        <v>1019659.654333583</v>
       </c>
     </row>
     <row r="4">
@@ -9154,28 +9154,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>595.5213777147821</v>
+        <v>631.8852848874624</v>
       </c>
       <c r="AB4" t="n">
-        <v>814.8186215383271</v>
+        <v>864.5733235943494</v>
       </c>
       <c r="AC4" t="n">
-        <v>737.0534759038263</v>
+        <v>782.0596590267849</v>
       </c>
       <c r="AD4" t="n">
-        <v>595521.3777147821</v>
+        <v>631885.2848874624</v>
       </c>
       <c r="AE4" t="n">
-        <v>814818.6215383271</v>
+        <v>864573.3235943494</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.324870505387958e-06</v>
+        <v>4.33105741842312e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.588541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>737053.4759038263</v>
+        <v>782059.6590267848</v>
       </c>
     </row>
     <row r="5">
@@ -9260,28 +9260,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>521.6515282109008</v>
+        <v>557.8448431829887</v>
       </c>
       <c r="AB5" t="n">
-        <v>713.7466345393586</v>
+        <v>763.2679248205339</v>
       </c>
       <c r="AC5" t="n">
-        <v>645.6276574886148</v>
+        <v>690.4227053289221</v>
       </c>
       <c r="AD5" t="n">
-        <v>521651.5282109007</v>
+        <v>557844.8431829887</v>
       </c>
       <c r="AE5" t="n">
-        <v>713746.6345393587</v>
+        <v>763267.924820534</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.496478593926083e-06</v>
+        <v>4.650750271509761e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.135416666666667</v>
       </c>
       <c r="AH5" t="n">
-        <v>645627.6574886148</v>
+        <v>690422.7053289221</v>
       </c>
     </row>
     <row r="6">
@@ -9366,28 +9366,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>463.4044232067741</v>
+        <v>499.6829895248829</v>
       </c>
       <c r="AB6" t="n">
-        <v>634.0503757917991</v>
+        <v>683.6883107256235</v>
       </c>
       <c r="AC6" t="n">
-        <v>573.5374978215203</v>
+        <v>618.4380579125401</v>
       </c>
       <c r="AD6" t="n">
-        <v>463404.4232067741</v>
+        <v>499682.9895248829</v>
       </c>
       <c r="AE6" t="n">
-        <v>634050.375791799</v>
+        <v>683688.3107256235</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.60441375843935e-06</v>
+        <v>4.8518252965017e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.881250000000001</v>
       </c>
       <c r="AH6" t="n">
-        <v>573537.4978215203</v>
+        <v>618438.0579125402</v>
       </c>
     </row>
     <row r="7">
@@ -9472,28 +9472,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>434.8553854638624</v>
+        <v>471.133951781971</v>
       </c>
       <c r="AB7" t="n">
-        <v>594.9883228572926</v>
+        <v>644.6262577911173</v>
       </c>
       <c r="AC7" t="n">
-        <v>538.2034723951476</v>
+        <v>583.1040324861675</v>
       </c>
       <c r="AD7" t="n">
-        <v>434855.3854638624</v>
+        <v>471133.951781971</v>
       </c>
       <c r="AE7" t="n">
-        <v>594988.3228572926</v>
+        <v>644626.2577911173</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.663969264744355e-06</v>
+        <v>4.962772687675728e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.75</v>
       </c>
       <c r="AH7" t="n">
-        <v>538203.4723951477</v>
+        <v>583104.0324861675</v>
       </c>
     </row>
     <row r="8">
@@ -9578,28 +9578,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>434.9747605679242</v>
+        <v>471.2533268860328</v>
       </c>
       <c r="AB8" t="n">
-        <v>595.1516571411278</v>
+        <v>644.7895920749526</v>
       </c>
       <c r="AC8" t="n">
-        <v>538.3512182841748</v>
+        <v>583.2517783751945</v>
       </c>
       <c r="AD8" t="n">
-        <v>434974.7605679242</v>
+        <v>471253.3268860328</v>
       </c>
       <c r="AE8" t="n">
-        <v>595151.6571411277</v>
+        <v>644789.5920749526</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.666616176135688e-06</v>
+        <v>4.967703682839018e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.744791666666667</v>
       </c>
       <c r="AH8" t="n">
-        <v>538351.2182841748</v>
+        <v>583251.7783751945</v>
       </c>
     </row>
   </sheetData>
@@ -9875,28 +9875,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>800.4992941718017</v>
+        <v>856.0163707627753</v>
       </c>
       <c r="AB2" t="n">
-        <v>1095.278449822273</v>
+        <v>1171.239363254604</v>
       </c>
       <c r="AC2" t="n">
-        <v>990.7466118041935</v>
+        <v>1059.457922270354</v>
       </c>
       <c r="AD2" t="n">
-        <v>800499.2941718017</v>
+        <v>856016.3707627753</v>
       </c>
       <c r="AE2" t="n">
-        <v>1095278.449822273</v>
+        <v>1171239.363254604</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.869263917341652e-06</v>
+        <v>3.746934578041659e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.865625</v>
       </c>
       <c r="AH2" t="n">
-        <v>990746.6118041936</v>
+        <v>1059457.922270354</v>
       </c>
     </row>
     <row r="3">
@@ -9981,28 +9981,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>437.6606024068282</v>
+        <v>470.9368015281347</v>
       </c>
       <c r="AB3" t="n">
-        <v>598.8265444360953</v>
+        <v>644.3565081161629</v>
       </c>
       <c r="AC3" t="n">
-        <v>541.6753794934473</v>
+        <v>582.8600273415947</v>
       </c>
       <c r="AD3" t="n">
-        <v>437660.6024068281</v>
+        <v>470936.8015281347</v>
       </c>
       <c r="AE3" t="n">
-        <v>598826.5444360953</v>
+        <v>644356.5081161628</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.599310905995341e-06</v>
+        <v>5.210311835797674e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.375</v>
       </c>
       <c r="AH3" t="n">
-        <v>541675.3794934473</v>
+        <v>582860.0273415947</v>
       </c>
     </row>
     <row r="4">
@@ -10087,28 +10087,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>368.2906251634576</v>
+        <v>412.6018774107505</v>
       </c>
       <c r="AB4" t="n">
-        <v>503.911481184311</v>
+        <v>564.5400913835383</v>
       </c>
       <c r="AC4" t="n">
-        <v>455.8188766642854</v>
+        <v>510.6611773988872</v>
       </c>
       <c r="AD4" t="n">
-        <v>368290.6251634576</v>
+        <v>412601.8774107505</v>
       </c>
       <c r="AE4" t="n">
-        <v>503911.481184311</v>
+        <v>564540.0913835383</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.778919328350977e-06</v>
+        <v>5.570336443338868e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.963541666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>455818.8766642854</v>
+        <v>510661.1773988872</v>
       </c>
     </row>
     <row r="5">
@@ -10193,28 +10193,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>369.3022405614902</v>
+        <v>413.6134928087831</v>
       </c>
       <c r="AB5" t="n">
-        <v>505.2956180012209</v>
+        <v>565.9242282004481</v>
       </c>
       <c r="AC5" t="n">
-        <v>457.0709134060376</v>
+        <v>511.9132141406394</v>
       </c>
       <c r="AD5" t="n">
-        <v>369302.2405614902</v>
+        <v>413613.4928087831</v>
       </c>
       <c r="AE5" t="n">
-        <v>505295.6180012209</v>
+        <v>565924.2282004481</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.782578313040242e-06</v>
+        <v>5.577670868470355e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.955208333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>457070.9134060376</v>
+        <v>511913.2141406394</v>
       </c>
     </row>
   </sheetData>
@@ -10490,28 +10490,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>536.0700913876665</v>
+        <v>578.6510874151547</v>
       </c>
       <c r="AB2" t="n">
-        <v>733.4747487799232</v>
+        <v>791.7359460856964</v>
       </c>
       <c r="AC2" t="n">
-        <v>663.4729481946418</v>
+        <v>716.1737785996562</v>
       </c>
       <c r="AD2" t="n">
-        <v>536070.0913876665</v>
+        <v>578651.0874151548</v>
       </c>
       <c r="AE2" t="n">
-        <v>733474.7487799232</v>
+        <v>791735.9460856963</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.265492225332168e-06</v>
+        <v>4.739551414559504e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.619791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>663472.9481946419</v>
+        <v>716173.7785996562</v>
       </c>
     </row>
     <row r="3">
@@ -10596,28 +10596,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>354.4307932693123</v>
+        <v>386.2812889439079</v>
       </c>
       <c r="AB3" t="n">
-        <v>484.9478477341128</v>
+        <v>528.5271010607933</v>
       </c>
       <c r="AC3" t="n">
-        <v>438.6651057749473</v>
+        <v>478.0852163279957</v>
       </c>
       <c r="AD3" t="n">
-        <v>354430.7932693124</v>
+        <v>386281.2889439079</v>
       </c>
       <c r="AE3" t="n">
-        <v>484947.8477341128</v>
+        <v>528527.1010607933</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.798100813746885e-06</v>
+        <v>5.853801889754752e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.16875</v>
       </c>
       <c r="AH3" t="n">
-        <v>438665.1057749473</v>
+        <v>478085.2163279957</v>
       </c>
     </row>
     <row r="4">
@@ -10702,28 +10702,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>355.1625158751643</v>
+        <v>387.0130115497599</v>
       </c>
       <c r="AB4" t="n">
-        <v>485.9490228847623</v>
+        <v>529.5282762114429</v>
       </c>
       <c r="AC4" t="n">
-        <v>439.5707301743771</v>
+        <v>478.9908407274255</v>
       </c>
       <c r="AD4" t="n">
-        <v>355162.5158751643</v>
+        <v>387013.0115497599</v>
       </c>
       <c r="AE4" t="n">
-        <v>485949.0228847623</v>
+        <v>529528.2762114429</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.803569414685804e-06</v>
+        <v>5.865242544913883e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.157291666666667</v>
       </c>
       <c r="AH4" t="n">
-        <v>439570.7301743771</v>
+        <v>478990.8407274255</v>
       </c>
     </row>
   </sheetData>
@@ -18908,28 +18908,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>382.5107242685157</v>
+        <v>423.4869242255201</v>
       </c>
       <c r="AB2" t="n">
-        <v>523.3680481263482</v>
+        <v>579.4334926498797</v>
       </c>
       <c r="AC2" t="n">
-        <v>473.4185361648378</v>
+        <v>524.1331733513889</v>
       </c>
       <c r="AD2" t="n">
-        <v>382510.7242685157</v>
+        <v>423486.9242255201</v>
       </c>
       <c r="AE2" t="n">
-        <v>523368.0481263482</v>
+        <v>579433.4926498797</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.605827229439103e-06</v>
+        <v>5.664692557966214e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>7</v>
+        <v>6.852083333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>473418.5361648378</v>
+        <v>524133.1733513889</v>
       </c>
     </row>
     <row r="3">
@@ -19014,28 +19014,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>340.3924223542448</v>
+        <v>371.1033266169063</v>
       </c>
       <c r="AB3" t="n">
-        <v>465.7399293189026</v>
+        <v>507.7599434005501</v>
       </c>
       <c r="AC3" t="n">
-        <v>421.290364134802</v>
+        <v>459.3000470479573</v>
       </c>
       <c r="AD3" t="n">
-        <v>340392.4223542449</v>
+        <v>371103.3266169063</v>
       </c>
       <c r="AE3" t="n">
-        <v>465739.9293189026</v>
+        <v>507759.9434005501</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.777080528709524e-06</v>
+        <v>6.036972530692236e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.430208333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>421290.364134802</v>
+        <v>459300.0470479573</v>
       </c>
     </row>
   </sheetData>
@@ -19311,28 +19311,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>333.8943229190006</v>
+        <v>371.943832283163</v>
       </c>
       <c r="AB2" t="n">
-        <v>456.848942995687</v>
+        <v>508.9099603336155</v>
       </c>
       <c r="AC2" t="n">
-        <v>413.2479210676965</v>
+        <v>460.3403079789898</v>
       </c>
       <c r="AD2" t="n">
-        <v>333894.3229190006</v>
+        <v>371943.832283163</v>
       </c>
       <c r="AE2" t="n">
-        <v>456848.942995687</v>
+        <v>508909.9603336155</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.544779828738836e-06</v>
+        <v>6.052827438884932e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>8</v>
+        <v>7.53125</v>
       </c>
       <c r="AH2" t="n">
-        <v>413247.9210676965</v>
+        <v>460340.3079789898</v>
       </c>
     </row>
   </sheetData>
@@ -19608,28 +19608,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1159.331315507051</v>
+        <v>1216.862345666799</v>
       </c>
       <c r="AB2" t="n">
-        <v>1586.248251964678</v>
+        <v>1664.964745519165</v>
       </c>
       <c r="AC2" t="n">
-        <v>1434.858945110573</v>
+        <v>1506.062846999512</v>
       </c>
       <c r="AD2" t="n">
-        <v>1159331.315507051</v>
+        <v>1216862.345666799</v>
       </c>
       <c r="AE2" t="n">
-        <v>1586248.251964678</v>
+        <v>1664964.745519165</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.550391448653428e-06</v>
+        <v>3.008655838953274e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>11</v>
+        <v>10.33854166666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>1434858.945110573</v>
+        <v>1506062.846999513</v>
       </c>
     </row>
     <row r="3">
@@ -19714,28 +19714,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>554.4214509162517</v>
+        <v>600.4291352662945</v>
       </c>
       <c r="AB3" t="n">
-        <v>758.5838884917767</v>
+        <v>821.5336319352884</v>
       </c>
       <c r="AC3" t="n">
-        <v>686.1857068532952</v>
+        <v>743.1276151330778</v>
       </c>
       <c r="AD3" t="n">
-        <v>554421.4509162517</v>
+        <v>600429.1352662945</v>
       </c>
       <c r="AE3" t="n">
-        <v>758583.8884917768</v>
+        <v>821533.6319352884</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.342205104347209e-06</v>
+        <v>4.545232153686654e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.842708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>686185.7068532952</v>
+        <v>743127.6151330778</v>
       </c>
     </row>
     <row r="4">
@@ -19820,28 +19820,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>444.4103608658932</v>
+        <v>478.8948784233334</v>
       </c>
       <c r="AB4" t="n">
-        <v>608.0618617381153</v>
+        <v>655.2451000097481</v>
       </c>
       <c r="AC4" t="n">
-        <v>550.0292910740117</v>
+        <v>592.7094273070908</v>
       </c>
       <c r="AD4" t="n">
-        <v>444410.3608658932</v>
+        <v>478894.8784233334</v>
       </c>
       <c r="AE4" t="n">
-        <v>608061.8617381153</v>
+        <v>655245.100009748</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.631634075656965e-06</v>
+        <v>5.106891704408281e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.090625</v>
       </c>
       <c r="AH4" t="n">
-        <v>550029.2910740117</v>
+        <v>592709.4273070907</v>
       </c>
     </row>
     <row r="5">
@@ -19926,28 +19926,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>391.8776969323465</v>
+        <v>426.4474658358071</v>
       </c>
       <c r="AB5" t="n">
-        <v>536.1843533666702</v>
+        <v>583.4842362909523</v>
       </c>
       <c r="AC5" t="n">
-        <v>485.0116712208208</v>
+        <v>527.7973197046121</v>
       </c>
       <c r="AD5" t="n">
-        <v>391877.6969323464</v>
+        <v>426447.4658358071</v>
       </c>
       <c r="AE5" t="n">
-        <v>536184.3533666702</v>
+        <v>583484.2362909523</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.743343503180029e-06</v>
+        <v>5.323672583634172e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.842708333333334</v>
       </c>
       <c r="AH5" t="n">
-        <v>485011.6712208208</v>
+        <v>527797.319704612</v>
       </c>
     </row>
     <row r="6">
@@ -20032,28 +20032,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>393.1489290140959</v>
+        <v>427.7186979175566</v>
       </c>
       <c r="AB6" t="n">
-        <v>537.9237091837214</v>
+        <v>585.2235921080033</v>
       </c>
       <c r="AC6" t="n">
-        <v>486.5850253598937</v>
+        <v>529.3706738436849</v>
       </c>
       <c r="AD6" t="n">
-        <v>393148.9290140959</v>
+        <v>427718.6979175566</v>
       </c>
       <c r="AE6" t="n">
-        <v>537923.7091837213</v>
+        <v>585223.5921080033</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.743497372914909e-06</v>
+        <v>5.323971179886549e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.842708333333334</v>
       </c>
       <c r="AH6" t="n">
-        <v>486585.0253598937</v>
+        <v>529370.673843685</v>
       </c>
     </row>
   </sheetData>
@@ -20329,28 +20329,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>1869.894092044963</v>
+        <v>1953.716566119263</v>
       </c>
       <c r="AB2" t="n">
-        <v>2558.471590641131</v>
+        <v>2673.161197656153</v>
       </c>
       <c r="AC2" t="n">
-        <v>2314.294652867771</v>
+        <v>2418.038444757154</v>
       </c>
       <c r="AD2" t="n">
-        <v>1869894.092044963</v>
+        <v>1953716.566119263</v>
       </c>
       <c r="AE2" t="n">
-        <v>2558471.590641131</v>
+        <v>2673161.197656154</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.196421073725137e-06</v>
+        <v>2.244955205641955e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>13</v>
+        <v>12.91041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>2314294.652867771</v>
+        <v>2418038.444757154</v>
       </c>
     </row>
     <row r="3">
@@ -20435,28 +20435,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>729.3416545551298</v>
+        <v>777.1183851710357</v>
       </c>
       <c r="AB3" t="n">
-        <v>997.9174280452404</v>
+        <v>1063.287658634519</v>
       </c>
       <c r="AC3" t="n">
-        <v>902.6775892985088</v>
+        <v>961.8089768280415</v>
       </c>
       <c r="AD3" t="n">
-        <v>729341.6545551298</v>
+        <v>777118.3851710357</v>
       </c>
       <c r="AE3" t="n">
-        <v>997917.4280452403</v>
+        <v>1063287.658634519</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.065898478152478e-06</v>
+        <v>3.876435850812909e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>8</v>
+        <v>7.476041666666666</v>
       </c>
       <c r="AH3" t="n">
-        <v>902677.5892985088</v>
+        <v>961808.9768280415</v>
       </c>
     </row>
     <row r="4">
@@ -20541,28 +20541,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>565.0450927057881</v>
+        <v>600.9203334721408</v>
       </c>
       <c r="AB4" t="n">
-        <v>773.1196238702182</v>
+        <v>822.2057109906632</v>
       </c>
       <c r="AC4" t="n">
-        <v>699.3341720482508</v>
+        <v>743.7355519066765</v>
       </c>
       <c r="AD4" t="n">
-        <v>565045.0927057881</v>
+        <v>600920.3334721408</v>
       </c>
       <c r="AE4" t="n">
-        <v>773119.6238702182</v>
+        <v>822205.7109906632</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.380980245616341e-06</v>
+        <v>4.467652830858659e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.486458333333334</v>
       </c>
       <c r="AH4" t="n">
-        <v>699334.1720482508</v>
+        <v>743735.5519066765</v>
       </c>
     </row>
     <row r="5">
@@ -20647,28 +20647,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>495.5515558294641</v>
+        <v>531.426796595817</v>
       </c>
       <c r="AB5" t="n">
-        <v>678.0355008775608</v>
+        <v>727.1215879980058</v>
       </c>
       <c r="AC5" t="n">
-        <v>613.3247443026081</v>
+        <v>657.7261241610336</v>
       </c>
       <c r="AD5" t="n">
-        <v>495551.5558294641</v>
+        <v>531426.796595817</v>
       </c>
       <c r="AE5" t="n">
-        <v>678035.5008775608</v>
+        <v>727121.5879980058</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.551791632024987e-06</v>
+        <v>4.788161988982285e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>7</v>
+        <v>6.052083333333333</v>
       </c>
       <c r="AH5" t="n">
-        <v>613324.7443026081</v>
+        <v>657726.1241610335</v>
       </c>
     </row>
     <row r="6">
@@ -20753,28 +20753,28 @@
         <v>10</v>
       </c>
       <c r="AA6" t="n">
-        <v>438.1301012570131</v>
+        <v>474.0905933693865</v>
       </c>
       <c r="AB6" t="n">
-        <v>599.4689334757458</v>
+        <v>648.67166524884</v>
       </c>
       <c r="AC6" t="n">
-        <v>542.2564598247523</v>
+        <v>586.7633519338901</v>
       </c>
       <c r="AD6" t="n">
-        <v>438130.101257013</v>
+        <v>474090.5933693864</v>
       </c>
       <c r="AE6" t="n">
-        <v>599468.9334757457</v>
+        <v>648671.66524884</v>
       </c>
       <c r="AF6" t="n">
-        <v>2.655583273071906e-06</v>
+        <v>4.982915817703237e-06</v>
       </c>
       <c r="AG6" t="n">
-        <v>6</v>
+        <v>5.815625</v>
       </c>
       <c r="AH6" t="n">
-        <v>542256.4598247523</v>
+        <v>586763.3519338901</v>
       </c>
     </row>
     <row r="7">
@@ -20859,28 +20859,28 @@
         <v>10</v>
       </c>
       <c r="AA7" t="n">
-        <v>426.1746482824357</v>
+        <v>462.135140394809</v>
       </c>
       <c r="AB7" t="n">
-        <v>583.1109552785684</v>
+        <v>632.3136870516626</v>
       </c>
       <c r="AC7" t="n">
-        <v>527.459664108147</v>
+        <v>571.9665562172847</v>
       </c>
       <c r="AD7" t="n">
-        <v>426174.6482824357</v>
+        <v>462135.140394809</v>
       </c>
       <c r="AE7" t="n">
-        <v>583110.9552785684</v>
+        <v>632313.6870516626</v>
       </c>
       <c r="AF7" t="n">
-        <v>2.679603624285622e-06</v>
+        <v>5.027987418064372e-06</v>
       </c>
       <c r="AG7" t="n">
-        <v>6</v>
+        <v>5.763541666666666</v>
       </c>
       <c r="AH7" t="n">
-        <v>527459.6641081469</v>
+        <v>571966.5562172848</v>
       </c>
     </row>
     <row r="8">
@@ -20965,28 +20965,28 @@
         <v>10</v>
       </c>
       <c r="AA8" t="n">
-        <v>427.9798763743286</v>
+        <v>463.9403684867019</v>
       </c>
       <c r="AB8" t="n">
-        <v>585.5809479949389</v>
+        <v>634.783679768033</v>
       </c>
       <c r="AC8" t="n">
-        <v>529.6939241863236</v>
+        <v>574.2008162954614</v>
       </c>
       <c r="AD8" t="n">
-        <v>427979.8763743286</v>
+        <v>463940.3684867019</v>
       </c>
       <c r="AE8" t="n">
-        <v>585580.9479949389</v>
+        <v>634783.6797680331</v>
       </c>
       <c r="AF8" t="n">
-        <v>2.679307076739774e-06</v>
+        <v>5.027430978553741e-06</v>
       </c>
       <c r="AG8" t="n">
-        <v>6</v>
+        <v>5.764583333333334</v>
       </c>
       <c r="AH8" t="n">
-        <v>529693.9241863235</v>
+        <v>574200.8162954614</v>
       </c>
     </row>
   </sheetData>
@@ -21262,28 +21262,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>347.4157013786543</v>
+        <v>393.1313253402496</v>
       </c>
       <c r="AB2" t="n">
-        <v>475.3494895253023</v>
+        <v>537.8996230605455</v>
       </c>
       <c r="AC2" t="n">
-        <v>429.9828014022054</v>
+        <v>486.5632379825088</v>
       </c>
       <c r="AD2" t="n">
-        <v>347415.7013786543</v>
+        <v>393131.3253402496</v>
       </c>
       <c r="AE2" t="n">
-        <v>475349.4895253023</v>
+        <v>537899.6230605455</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.273321773294615e-06</v>
+        <v>5.685405233685132e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.730208333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>429982.8014022054</v>
+        <v>486563.2379825088</v>
       </c>
     </row>
   </sheetData>
@@ -21559,28 +21559,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>624.8288894087693</v>
+        <v>667.9994259601203</v>
       </c>
       <c r="AB2" t="n">
-        <v>854.9184519942037</v>
+        <v>913.9862846534187</v>
       </c>
       <c r="AC2" t="n">
-        <v>773.3262348214597</v>
+        <v>826.7567164339027</v>
       </c>
       <c r="AD2" t="n">
-        <v>624828.8894087693</v>
+        <v>667999.4259601203</v>
       </c>
       <c r="AE2" t="n">
-        <v>854918.4519942037</v>
+        <v>913986.2846534187</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.121916882121832e-06</v>
+        <v>4.369628334857285e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.016666666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>773326.2348214597</v>
+        <v>826756.7164339027</v>
       </c>
     </row>
     <row r="3">
@@ -21665,28 +21665,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>369.7182802724265</v>
+        <v>402.0748698494347</v>
       </c>
       <c r="AB3" t="n">
-        <v>505.8648618881006</v>
+        <v>550.1365752193494</v>
       </c>
       <c r="AC3" t="n">
-        <v>457.5858294552924</v>
+        <v>497.6323126019466</v>
       </c>
       <c r="AD3" t="n">
-        <v>369718.2802724264</v>
+        <v>402074.8698494346</v>
       </c>
       <c r="AE3" t="n">
-        <v>505864.8618881006</v>
+        <v>550136.5752193495</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.767767372255112e-06</v>
+        <v>5.699617565606904e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.145833333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>457585.8294552924</v>
+        <v>497632.3126019466</v>
       </c>
     </row>
     <row r="4">
@@ -21771,28 +21771,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>363.9306565581906</v>
+        <v>396.2872461351989</v>
       </c>
       <c r="AB4" t="n">
-        <v>497.9459797903453</v>
+        <v>542.2176931215942</v>
       </c>
       <c r="AC4" t="n">
-        <v>450.4227143507259</v>
+        <v>490.4691974973803</v>
       </c>
       <c r="AD4" t="n">
-        <v>363930.6565581906</v>
+        <v>396287.2461351989</v>
       </c>
       <c r="AE4" t="n">
-        <v>497945.9797903454</v>
+        <v>542217.6931215941</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.7956916285921e-06</v>
+        <v>5.757121524761944e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>7</v>
+        <v>6.084374999999999</v>
       </c>
       <c r="AH4" t="n">
-        <v>450422.7143507259</v>
+        <v>490469.1974973803</v>
       </c>
     </row>
   </sheetData>
@@ -22068,28 +22068,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>912.1250439106415</v>
+        <v>968.260988353917</v>
       </c>
       <c r="AB2" t="n">
-        <v>1248.009725195472</v>
+        <v>1324.817400925845</v>
       </c>
       <c r="AC2" t="n">
-        <v>1128.901428615467</v>
+        <v>1198.378687574382</v>
       </c>
       <c r="AD2" t="n">
-        <v>912125.0439106415</v>
+        <v>968260.988353917</v>
       </c>
       <c r="AE2" t="n">
-        <v>1248009.725195472</v>
+        <v>1324817.400925845</v>
       </c>
       <c r="AF2" t="n">
-        <v>1.756648687744072e-06</v>
+        <v>3.480244470142708e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>10</v>
+        <v>9.322916666666666</v>
       </c>
       <c r="AH2" t="n">
-        <v>1128901.428615466</v>
+        <v>1198378.687574382</v>
       </c>
     </row>
     <row r="3">
@@ -22174,28 +22174,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>476.8276440233579</v>
+        <v>510.6969068642501</v>
       </c>
       <c r="AB3" t="n">
-        <v>652.4166187037564</v>
+        <v>698.758038329086</v>
       </c>
       <c r="AC3" t="n">
-        <v>590.1508922871445</v>
+        <v>632.0695518640235</v>
       </c>
       <c r="AD3" t="n">
-        <v>476827.6440233579</v>
+        <v>510696.9068642501</v>
       </c>
       <c r="AE3" t="n">
-        <v>652416.6187037564</v>
+        <v>698758.038329086</v>
       </c>
       <c r="AF3" t="n">
-        <v>2.506286291177682e-06</v>
+        <v>4.965414579660334e-06</v>
       </c>
       <c r="AG3" t="n">
-        <v>7</v>
+        <v>6.534375</v>
       </c>
       <c r="AH3" t="n">
-        <v>590150.8922871446</v>
+        <v>632069.5518640236</v>
       </c>
     </row>
     <row r="4">
@@ -22280,28 +22280,28 @@
         <v>10</v>
       </c>
       <c r="AA4" t="n">
-        <v>378.824320844599</v>
+        <v>412.6082428309196</v>
       </c>
       <c r="AB4" t="n">
-        <v>518.3241483291043</v>
+        <v>564.5488008322362</v>
       </c>
       <c r="AC4" t="n">
-        <v>468.8560190850851</v>
+        <v>510.6690556300252</v>
       </c>
       <c r="AD4" t="n">
-        <v>378824.320844599</v>
+        <v>412608.2428309196</v>
       </c>
       <c r="AE4" t="n">
-        <v>518324.1483291044</v>
+        <v>564548.8008322362</v>
       </c>
       <c r="AF4" t="n">
-        <v>2.759886428413088e-06</v>
+        <v>5.467843142297064e-06</v>
       </c>
       <c r="AG4" t="n">
-        <v>6</v>
+        <v>5.934375</v>
       </c>
       <c r="AH4" t="n">
-        <v>468856.0190850851</v>
+        <v>510669.0556300252</v>
       </c>
     </row>
     <row r="5">
@@ -22386,28 +22386,28 @@
         <v>10</v>
       </c>
       <c r="AA5" t="n">
-        <v>377.9181070476314</v>
+        <v>411.702029033952</v>
       </c>
       <c r="AB5" t="n">
-        <v>517.0842266327622</v>
+        <v>563.3088791358941</v>
       </c>
       <c r="AC5" t="n">
-        <v>467.7344337752007</v>
+        <v>509.5474703201411</v>
       </c>
       <c r="AD5" t="n">
-        <v>377918.1070476314</v>
+        <v>411702.029033952</v>
       </c>
       <c r="AE5" t="n">
-        <v>517084.2266327622</v>
+        <v>563308.8791358941</v>
       </c>
       <c r="AF5" t="n">
-        <v>2.770105900775333e-06</v>
+        <v>5.488089798571948e-06</v>
       </c>
       <c r="AG5" t="n">
-        <v>6</v>
+        <v>5.912500000000001</v>
       </c>
       <c r="AH5" t="n">
-        <v>467734.4337752007</v>
+        <v>509547.4703201411</v>
       </c>
     </row>
   </sheetData>
